--- a/7/2/3/1/Dinero Legal 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/1/Dinero Legal 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3233,16 +3236,16 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F75">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="G75">
         <v>921</v>
       </c>
       <c r="H75">
-        <v>10137</v>
+        <v>10132</v>
       </c>
       <c r="I75">
         <v>256</v>
@@ -3252,6 +3255,41 @@
       </c>
       <c r="K75">
         <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>17567</v>
+      </c>
+      <c r="C76">
+        <v>3030</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>36</v>
+      </c>
+      <c r="F76">
+        <v>1435</v>
+      </c>
+      <c r="G76">
+        <v>924</v>
+      </c>
+      <c r="H76">
+        <v>12141</v>
+      </c>
+      <c r="I76">
+        <v>279</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
